--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_speed_coherence.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.830865383148193</v>
+        <v>11.23355579376221</v>
       </c>
       <c r="C2" t="n">
-        <v>2.605763912200928</v>
+        <v>8.97450065612793</v>
       </c>
       <c r="D2" t="n">
-        <v>2.494571447372437</v>
+        <v>7.724046230316162</v>
       </c>
       <c r="E2" t="n">
-        <v>2.969193458557129</v>
+        <v>5.823922157287598</v>
       </c>
       <c r="F2" t="n">
-        <v>2.688974380493164</v>
+        <v>6.548138618469238</v>
       </c>
       <c r="G2" t="n">
-        <v>3.349714279174805</v>
+        <v>6.058896064758301</v>
       </c>
       <c r="H2" t="n">
-        <v>2.382174015045166</v>
+        <v>7.836143970489502</v>
       </c>
       <c r="I2" t="n">
-        <v>2.668571472167969</v>
+        <v>7.792117118835449</v>
       </c>
       <c r="J2" t="n">
-        <v>2.495384454727173</v>
+        <v>5.888918876647949</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8207605727590047</v>
+        <v>0.9540147696295355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7975460733804438</v>
+        <v>0.9141596872891699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8161124910627092</v>
+        <v>0.9211135127640873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7857365550533417</v>
+        <v>0.8726046461901978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7810824536360227</v>
+        <v>0.8850821459547003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8672363698482514</v>
+        <v>0.9123707251115278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8282609633777452</v>
+        <v>0.8998590411703571</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8147871460233416</v>
+        <v>0.9185239424670699</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7577171784180862</v>
+        <v>0.8935475548108419</v>
       </c>
     </row>
   </sheetData>
